--- a/temp/order/ORDER 10-22.xlsx
+++ b/temp/order/ORDER 10-22.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="289">
   <si>
     <t>CHI TIẾT DOANH THU THEO HÓA ĐƠN VÀ MẶT HÀNG</t>
   </si>
@@ -1027,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1087,6 +1087,9 @@
     </xf>
     <xf borderId="7" fillId="2" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -25345,50 +25348,194 @@
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="20"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="21"/>
-      <c r="D351" s="21"/>
-      <c r="E351" s="21"/>
-      <c r="F351" s="21"/>
-      <c r="G351" s="22" t="s">
+      <c r="A351" s="19">
+        <v>44839.0</v>
+      </c>
+      <c r="B351" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C351" s="20">
+        <v>2.206016548E9</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E351" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F351" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G351" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H351" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="I351" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="J351" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="K351" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L351" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M351" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N351" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O351" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P351" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q351" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R351" s="13"/>
+      <c r="S351" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="T351" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U351" s="13"/>
+      <c r="V351" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W351" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X351" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y351" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="19">
+        <v>44839.0</v>
+      </c>
+      <c r="B352" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C352" s="20">
+        <v>2.206019843E9</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G352" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H352" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="I352" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="J352" s="15">
+        <v>15000.0</v>
+      </c>
+      <c r="K352" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L352" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M352" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N352" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O352" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P352" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q352" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R352" s="13"/>
+      <c r="S352" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="T352" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U352" s="13"/>
+      <c r="V352" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W352" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X352" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y352" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="21"/>
+      <c r="B353" s="21"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="22"/>
+      <c r="E353" s="22"/>
+      <c r="F353" s="22"/>
+      <c r="G353" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="H351" s="23"/>
-      <c r="I351" s="23">
+      <c r="H353" s="24"/>
+      <c r="I353" s="24">
         <v>1.734262E7</v>
       </c>
-      <c r="J351" s="23">
+      <c r="J353" s="24">
         <v>1.7931E7</v>
       </c>
-      <c r="K351" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="L351" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="M351" s="23">
+      <c r="K353" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="L353" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="M353" s="24">
         <v>588380.0</v>
       </c>
-      <c r="N351" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="O351" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="P351" s="21"/>
-      <c r="Q351" s="21"/>
-      <c r="R351" s="21"/>
-      <c r="S351" s="22"/>
-      <c r="T351" s="21"/>
-      <c r="U351" s="21"/>
-      <c r="V351" s="21"/>
-      <c r="W351" s="21"/>
-      <c r="X351" s="21"/>
-      <c r="Y351" s="21"/>
-    </row>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
+      <c r="N353" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="O353" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="P353" s="22"/>
+      <c r="Q353" s="22"/>
+      <c r="R353" s="22"/>
+      <c r="S353" s="23"/>
+      <c r="T353" s="22"/>
+      <c r="U353" s="22"/>
+      <c r="V353" s="22"/>
+      <c r="W353" s="22"/>
+      <c r="X353" s="22"/>
+      <c r="Y353" s="22"/>
+    </row>
     <row r="354" ht="12.75" customHeight="1"/>
     <row r="355" ht="12.75" customHeight="1"/>
     <row r="356" ht="12.75" customHeight="1"/>
@@ -26042,6 +26189,8 @@
     <row r="1004" ht="12.75" customHeight="1"/>
     <row r="1005" ht="12.75" customHeight="1"/>
     <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="E9:E10"/>
@@ -26088,30 +26237,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="26">
         <v>2022.0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>10.0</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="27">
         <v>8.0</v>
       </c>
     </row>
